--- a/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>99644</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82637</v>
+        <v>81391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121236</v>
+        <v>119497</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09657990614018573</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08009591813393903</v>
+        <v>0.0788888683611276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1175078672569844</v>
+        <v>0.1158229061380499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>189</v>
@@ -765,19 +765,19 @@
         <v>196069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171075</v>
+        <v>173155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>221600</v>
+        <v>221312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1490889096096721</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1300836437026389</v>
+        <v>0.131665679695657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1685022624743305</v>
+        <v>0.1682833834010889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>288</v>
@@ -786,19 +786,19 @@
         <v>295712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265352</v>
+        <v>263723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>331402</v>
+        <v>327704</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1260047442175656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1130679683054274</v>
+        <v>0.1123739242063297</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1412123175490019</v>
+        <v>0.1396365493972509</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>932079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>910487</v>
+        <v>912226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>949086</v>
+        <v>950332</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9034200938598143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8824921327430157</v>
+        <v>0.8841770938619501</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.919904081866061</v>
+        <v>0.9211111316388725</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1102</v>
@@ -836,19 +836,19 @@
         <v>1119044</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1093513</v>
+        <v>1093801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1144038</v>
+        <v>1141958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8509110903903279</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8314977375256695</v>
+        <v>0.8317166165989111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8699163562973611</v>
+        <v>0.868334320304343</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2041</v>
@@ -857,19 +857,19 @@
         <v>2051123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2015433</v>
+        <v>2019131</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2081483</v>
+        <v>2083112</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8739952557824344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8587876824509981</v>
+        <v>0.8603634506027493</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8869320316945727</v>
+        <v>0.8876260757936703</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>91400</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74140</v>
+        <v>73095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111543</v>
+        <v>111233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05397404908375829</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04378126959051996</v>
+        <v>0.04316425469755046</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0658688108209972</v>
+        <v>0.0656857937957586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -982,19 +982,19 @@
         <v>63077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47824</v>
+        <v>47665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79506</v>
+        <v>79515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03972936046903169</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03012183071397515</v>
+        <v>0.03002183147606316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05007695045060169</v>
+        <v>0.05008297873251091</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -1003,19 +1003,19 @@
         <v>154478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128971</v>
+        <v>132147</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>179203</v>
+        <v>184132</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04708123647724681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03930728984459329</v>
+        <v>0.04027526342162887</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05461706743870236</v>
+        <v>0.05611933325099967</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1602013</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1581870</v>
+        <v>1582180</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1619273</v>
+        <v>1620318</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9460259509162418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9341311891790027</v>
+        <v>0.9343142062042417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9562187304094799</v>
+        <v>0.9568357453024499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1496</v>
@@ -1053,19 +1053,19 @@
         <v>1524596</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1508167</v>
+        <v>1508158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1539849</v>
+        <v>1540008</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9602706395309684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9499230495493981</v>
+        <v>0.9499170212674891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9698781692860241</v>
+        <v>0.9699781685239368</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3061</v>
@@ -1074,19 +1074,19 @@
         <v>3126608</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3101883</v>
+        <v>3096954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3152115</v>
+        <v>3148939</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9529187635227532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9453829325612981</v>
+        <v>0.9438806667490001</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9606927101554069</v>
+        <v>0.9597247365783711</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>47605</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35286</v>
+        <v>34843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65231</v>
+        <v>63469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08633314234005808</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06399217098697906</v>
+        <v>0.06318994617448891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1182989344460313</v>
+        <v>0.1151032368603411</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1199,19 +1199,19 @@
         <v>36986</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25796</v>
+        <v>26102</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48299</v>
+        <v>49560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07763469257615704</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05414559155328773</v>
+        <v>0.0547882391966754</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1013817212302348</v>
+        <v>0.1040285227480743</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -1220,19 +1220,19 @@
         <v>84591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66640</v>
+        <v>67946</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104570</v>
+        <v>103788</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08230126476152626</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06483601640253468</v>
+        <v>0.06610700265423493</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.101739972718241</v>
+        <v>0.1009791964132668</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>503803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486177</v>
+        <v>487939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>516122</v>
+        <v>516565</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9136668576599419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8817010655539685</v>
+        <v>0.884896763139659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9360078290130209</v>
+        <v>0.9368100538255111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>415</v>
@@ -1270,19 +1270,19 @@
         <v>439426</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428113</v>
+        <v>426852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450616</v>
+        <v>450310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9223653074238429</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8986182787697651</v>
+        <v>0.8959714772519254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9458544084467122</v>
+        <v>0.9452117608033244</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>898</v>
@@ -1291,19 +1291,19 @@
         <v>943229</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>923250</v>
+        <v>924032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>961180</v>
+        <v>959874</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9176987352384738</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.898260027281759</v>
+        <v>0.8990208035867333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9351639835974653</v>
+        <v>0.9338929973457651</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>238649</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07283554118712565</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>284</v>
@@ -1416,19 +1416,19 @@
         <v>296132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08763383293384923</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>511</v>
@@ -1437,19 +1437,19 @@
         <v>534781</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08034880686593823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3037894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3004638</v>
+        <v>3006125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3068031</v>
+        <v>3067103</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9271644588128743</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9170147026015779</v>
+        <v>0.9174685905450155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9363622418561413</v>
+        <v>0.9360790898111833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3013</v>
@@ -1487,19 +1487,19 @@
         <v>3083065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3048445</v>
+        <v>3046006</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3116016</v>
+        <v>3116104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9123661670661508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.902121081271304</v>
+        <v>0.9013994626732633</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9221172523224542</v>
+        <v>0.922143344366562</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6000</v>
@@ -1508,19 +1508,19 @@
         <v>6120960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6077082</v>
+        <v>6074873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6161683</v>
+        <v>6165061</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9196511931340617</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9130586306247367</v>
+        <v>0.9127268012358586</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9257696228984048</v>
+        <v>0.9262771129393904</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>104342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84576</v>
+        <v>85168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124033</v>
+        <v>125590</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1070565892532918</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08677672917836068</v>
+        <v>0.08738381606303214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1272597564079413</v>
+        <v>0.1288577811420164</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>204</v>
@@ -1872,19 +1872,19 @@
         <v>218922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193201</v>
+        <v>192603</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>250556</v>
+        <v>245496</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1636438314119431</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1444172281355026</v>
+        <v>0.1439703105788645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1872898045296343</v>
+        <v>0.1835077687050353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>300</v>
@@ -1893,19 +1893,19 @@
         <v>323264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>289354</v>
+        <v>290860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>356751</v>
+        <v>356107</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1397935388110119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.125129447166823</v>
+        <v>0.1257803470389713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1542747567449886</v>
+        <v>0.1539962031243247</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>870301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>850610</v>
+        <v>849053</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>890067</v>
+        <v>889475</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8929434107467081</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8727402435920589</v>
+        <v>0.8711422188579839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9132232708216398</v>
+        <v>0.9126161839369679</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1043</v>
@@ -1943,19 +1943,19 @@
         <v>1118875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1087241</v>
+        <v>1092301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1144596</v>
+        <v>1145194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8363561685880569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8127101954703655</v>
+        <v>0.8164922312949646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8555827718644973</v>
+        <v>0.8560296894211354</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1855</v>
@@ -1964,19 +1964,19 @@
         <v>1989176</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1955689</v>
+        <v>1956333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2023086</v>
+        <v>2021580</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.860206461188988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8457252432550113</v>
+        <v>0.8460037968756756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8748705528331769</v>
+        <v>0.8742196529610289</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>120692</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99330</v>
+        <v>99037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146305</v>
+        <v>144574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06145360288559491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0505764682293811</v>
+        <v>0.0504273160235689</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07449513388701172</v>
+        <v>0.07361384329886669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -2089,19 +2089,19 @@
         <v>81277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64479</v>
+        <v>65263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>101868</v>
+        <v>101385</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04623796379503731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03668161879737573</v>
+        <v>0.03712734323178082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05795170730127339</v>
+        <v>0.05767691530939778</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>181</v>
@@ -2110,19 +2110,19 @@
         <v>201969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175520</v>
+        <v>174649</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235155</v>
+        <v>229806</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05426719366371721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04716049371545419</v>
+        <v>0.04692648061359135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06318372326503013</v>
+        <v>0.06174649699856768</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1843265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1817652</v>
+        <v>1819383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1864627</v>
+        <v>1864920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9385463971144051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9255048661129883</v>
+        <v>0.9263861567011332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.949423531770619</v>
+        <v>0.949572683976431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1563</v>
@@ -2160,19 +2160,19 @@
         <v>1676526</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1655935</v>
+        <v>1656418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1693324</v>
+        <v>1692540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9537620362049627</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.942048292698726</v>
+        <v>0.9423230846906024</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9633183812026241</v>
+        <v>0.9628726567682192</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3310</v>
@@ -2181,19 +2181,19 @@
         <v>3519791</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3486605</v>
+        <v>3491954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3546240</v>
+        <v>3547111</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9457328063362828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9368162767349699</v>
+        <v>0.9382535030014324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9528395062845458</v>
+        <v>0.9530735193864086</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>57980</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44696</v>
+        <v>43274</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73574</v>
+        <v>74492</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1204957093136827</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09288737013527447</v>
+        <v>0.08993217208654684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.152903919968579</v>
+        <v>0.1548114685857044</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -2306,19 +2306,19 @@
         <v>50777</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38070</v>
+        <v>37806</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66874</v>
+        <v>66758</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1107151765890423</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08300770135980802</v>
+        <v>0.08243273958664034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1458132192037153</v>
+        <v>0.1455592495178988</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>98</v>
@@ -2327,19 +2327,19 @@
         <v>108758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90248</v>
+        <v>90334</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129128</v>
+        <v>134295</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1157227825433186</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09602747622111132</v>
+        <v>0.09611894952710955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.137397421628209</v>
+        <v>0.1428950715291088</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>423201</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>407607</v>
+        <v>406689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>436485</v>
+        <v>437907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8795042906863173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8470960800314209</v>
+        <v>0.8451885314142956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9071126298647252</v>
+        <v>0.9100678279134532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>367</v>
@@ -2377,19 +2377,19 @@
         <v>407854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>391757</v>
+        <v>391873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>420561</v>
+        <v>420825</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8892848234109577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8541867807962847</v>
+        <v>0.8544407504821012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9169922986401919</v>
+        <v>0.9175672604133597</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>752</v>
@@ -2398,19 +2398,19 @@
         <v>831055</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>810685</v>
+        <v>805518</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>849565</v>
+        <v>849479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8842772174566814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.862602578371791</v>
+        <v>0.8571049284708913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9039725237788887</v>
+        <v>0.9038810504728904</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>283015</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>253023</v>
+        <v>248949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>321143</v>
+        <v>318568</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08275806050182867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07398794092749555</v>
+        <v>0.07279687517046428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09390753935017279</v>
+        <v>0.09315435606281906</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>321</v>
@@ -2523,19 +2523,19 @@
         <v>350977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>311553</v>
+        <v>318248</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>385859</v>
+        <v>392269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09874902895550818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08765685571901863</v>
+        <v>0.08954053590205313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.108563266179468</v>
+        <v>0.110366896275707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>579</v>
@@ -2544,19 +2544,19 @@
         <v>633991</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>587671</v>
+        <v>586810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>686788</v>
+        <v>688831</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09090768560954268</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08426582705131982</v>
+        <v>0.08414236523048688</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09847818215063361</v>
+        <v>0.09877110227815464</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3136767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3098639</v>
+        <v>3101214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3166759</v>
+        <v>3170833</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9172419394981713</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9060924606498272</v>
+        <v>0.9068456439371808</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9260120590725044</v>
+        <v>0.9272031248295356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2973</v>
@@ -2594,19 +2594,19 @@
         <v>3203253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3168371</v>
+        <v>3161961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3242677</v>
+        <v>3235982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9012509710444918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8914367338205317</v>
+        <v>0.8896331037242928</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9123431442809811</v>
+        <v>0.9104594640979466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5917</v>
@@ -2615,19 +2615,19 @@
         <v>6340021</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6287224</v>
+        <v>6285181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6386341</v>
+        <v>6387202</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9090923143904573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9015218178493665</v>
+        <v>0.9012288977218451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9157341729486802</v>
+        <v>0.9158576347695131</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>126521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108268</v>
+        <v>105929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148304</v>
+        <v>147903</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1677219010126821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1435258018293738</v>
+        <v>0.1404248898867563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1965996628591416</v>
+        <v>0.1960681119489808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>171</v>
@@ -2979,19 +2979,19 @@
         <v>202789</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178396</v>
+        <v>175304</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>232013</v>
+        <v>229055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2038777835297209</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1793535449079851</v>
+        <v>0.1762449985609523</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2332581651415071</v>
+        <v>0.2302851171627473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>302</v>
@@ -3000,19 +3000,19 @@
         <v>329310</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>298187</v>
+        <v>295498</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>363023</v>
+        <v>362773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1882837497458454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1704893929708597</v>
+        <v>0.1689516740169152</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2075594722113872</v>
+        <v>0.2074166335719496</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>627826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>606043</v>
+        <v>606444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>646079</v>
+        <v>648418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8322780989873179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8034003371408583</v>
+        <v>0.8039318880510192</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8564741981706262</v>
+        <v>0.8595751101132437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>721</v>
@@ -3050,19 +3050,19 @@
         <v>791871</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>762647</v>
+        <v>765605</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>816264</v>
+        <v>819356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.796122216470279</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7667418348584929</v>
+        <v>0.7697148828372526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8206464550920149</v>
+        <v>0.8237550014390477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1352</v>
@@ -3071,19 +3071,19 @@
         <v>1419697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1385984</v>
+        <v>1386234</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1450820</v>
+        <v>1453509</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8117162502541546</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7924405277886127</v>
+        <v>0.7925833664280505</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8295106070291403</v>
+        <v>0.8310483259830849</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>201687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176296</v>
+        <v>175764</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231469</v>
+        <v>231180</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09713380280868822</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08490535507602015</v>
+        <v>0.08464927759704188</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1114769021678834</v>
+        <v>0.1113375911925591</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -3196,19 +3196,19 @@
         <v>192554</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168223</v>
+        <v>167335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>223217</v>
+        <v>224331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09684363747881163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08460632195863799</v>
+        <v>0.08415962833192313</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1122653689631545</v>
+        <v>0.1128253006050953</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>359</v>
@@ -3217,19 +3217,19 @@
         <v>394241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>357623</v>
+        <v>356054</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>436224</v>
+        <v>434667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09699186419846452</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08798298983849671</v>
+        <v>0.08759693161508107</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1073205678163447</v>
+        <v>0.1069375132199169</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1874698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1844916</v>
+        <v>1845205</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1900089</v>
+        <v>1900621</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9028661971913118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8885230978321166</v>
+        <v>0.888662408807441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.91509464492398</v>
+        <v>0.9153507224029581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1736</v>
@@ -3267,19 +3267,19 @@
         <v>1795746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1765083</v>
+        <v>1763969</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1820077</v>
+        <v>1820965</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9031563625211884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8877346310368455</v>
+        <v>0.8871746993949048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9153936780413621</v>
+        <v>0.9158403716680769</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3501</v>
@@ -3288,19 +3288,19 @@
         <v>3670444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3628461</v>
+        <v>3630018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3707062</v>
+        <v>3708631</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9030081358015355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8926794321836555</v>
+        <v>0.8930624867800833</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9120170101615035</v>
+        <v>0.9124030683849189</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>97021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79612</v>
+        <v>79660</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119197</v>
+        <v>116622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1774062737131643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1455732389643377</v>
+        <v>0.1456606455698855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2179555765668589</v>
+        <v>0.2132469097775418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -3413,19 +3413,19 @@
         <v>70275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54440</v>
+        <v>54840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88756</v>
+        <v>87237</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1279723884366526</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09913739995838369</v>
+        <v>0.09986605890981716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1616268212278287</v>
+        <v>0.1588608597107835</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -3434,19 +3434,19 @@
         <v>167296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143193</v>
+        <v>142865</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192390</v>
+        <v>192265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1526384969711639</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1306469760636968</v>
+        <v>0.1303480097309518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1755340435774803</v>
+        <v>0.1754200753698487</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>449865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>427689</v>
+        <v>430264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467274</v>
+        <v>467226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8225937262868357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7820444234331413</v>
+        <v>0.7867530902224583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8544267610356624</v>
+        <v>0.8543393544301148</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>462</v>
@@ -3484,19 +3484,19 @@
         <v>478865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>460384</v>
+        <v>461903</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>494700</v>
+        <v>494300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8720276115633474</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8383731787721712</v>
+        <v>0.8411391402892165</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9008626000416162</v>
+        <v>0.9001339410901829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>877</v>
@@ -3505,19 +3505,19 @@
         <v>928731</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>903637</v>
+        <v>903762</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>952834</v>
+        <v>953162</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8473615030288361</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8244659564225197</v>
+        <v>0.8245799246301513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8693530239363032</v>
+        <v>0.8696519902690482</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>425229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>385634</v>
+        <v>386906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>462804</v>
+        <v>468093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.125896030264757</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1141733317034428</v>
+        <v>0.1145498749404561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1370208494224723</v>
+        <v>0.138586732912125</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>407</v>
@@ -3630,19 +3630,19 @@
         <v>465618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>425141</v>
+        <v>422903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>509489</v>
+        <v>511460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1318247077115417</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1203650209365362</v>
+        <v>0.1197312705338181</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1442453453668986</v>
+        <v>0.144803386274874</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>811</v>
@@ -3651,19 +3651,19 @@
         <v>890847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>830756</v>
+        <v>834575</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>950136</v>
+        <v>952455</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.128926643596143</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1202300528905874</v>
+        <v>0.12078271610568</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.137507220028809</v>
+        <v>0.137842858608151</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2952389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2914814</v>
+        <v>2909525</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2991984</v>
+        <v>2990712</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.874103969735243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8629791505775277</v>
+        <v>0.861413267087875</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8858266682965572</v>
+        <v>0.8854501250595439</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2919</v>
@@ -3701,19 +3701,19 @@
         <v>3066482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3022611</v>
+        <v>3020640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3106959</v>
+        <v>3109197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8681752922884584</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8557546546331013</v>
+        <v>0.8551966137251259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8796349790634634</v>
+        <v>0.880268729466182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5730</v>
@@ -3722,19 +3722,19 @@
         <v>6018871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5959582</v>
+        <v>5957263</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6078962</v>
+        <v>6075143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.871073356403857</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8624927799711906</v>
+        <v>0.8621571413918486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8797699471094126</v>
+        <v>0.87921728389432</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>163184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142039</v>
+        <v>143222</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184600</v>
+        <v>184002</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2820667332153191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2455181801886926</v>
+        <v>0.2475617649630242</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.319084938395202</v>
+        <v>0.3180511900831272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>539</v>
@@ -4086,19 +4086,19 @@
         <v>286308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>266875</v>
+        <v>266566</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>308242</v>
+        <v>306980</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3482904190923682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3246508240246302</v>
+        <v>0.3242748699988831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3749730274132732</v>
+        <v>0.3734375499910317</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>743</v>
@@ -4107,19 +4107,19 @@
         <v>449492</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>421430</v>
+        <v>417812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>479983</v>
+        <v>478503</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3209355388468044</v>
+        <v>0.3209355388468043</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3008998448443376</v>
+        <v>0.2983162719971169</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3427063914800219</v>
+        <v>0.3416493361683579</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>415345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>393929</v>
+        <v>394527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436490</v>
+        <v>435307</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7179332667846808</v>
+        <v>0.7179332667846809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6809150616047982</v>
+        <v>0.6819488099168729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7544818198113072</v>
+        <v>0.7524382350369759</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>888</v>
@@ -4157,19 +4157,19 @@
         <v>535730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>513796</v>
+        <v>515058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>555163</v>
+        <v>555472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6517095809076318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6250269725867269</v>
+        <v>0.6265624500089682</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6753491759753696</v>
+        <v>0.6757251300011169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1375</v>
@@ -4178,19 +4178,19 @@
         <v>951075</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>920584</v>
+        <v>922064</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>979137</v>
+        <v>982755</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6790644611531957</v>
+        <v>0.6790644611531956</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.657293608519978</v>
+        <v>0.6583506638316421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6991001551556625</v>
+        <v>0.701683728002883</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>374581</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>335923</v>
+        <v>333615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>415019</v>
+        <v>414284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1679309371692309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.150600009136664</v>
+        <v>0.1495652147840426</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1860600537800439</v>
+        <v>0.1857303916260409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>418</v>
@@ -4303,19 +4303,19 @@
         <v>258961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>234303</v>
+        <v>234688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>285010</v>
+        <v>286753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1192601740362354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1079043392510184</v>
+        <v>0.1080818740261672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1312568269843442</v>
+        <v>0.1320593313856165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>791</v>
@@ -4324,19 +4324,19 @@
         <v>633542</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>590524</v>
+        <v>589421</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>685017</v>
+        <v>680239</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1439226889176867</v>
+        <v>0.1439226889176868</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1341503521302077</v>
+        <v>0.1338997776617437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1556163928574955</v>
+        <v>0.1545309790881611</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1855985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1815547</v>
+        <v>1816282</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1894643</v>
+        <v>1896951</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8320690628307692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8139399462199559</v>
+        <v>0.8142696083739589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8493999908633358</v>
+        <v>0.8504347852159576</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2503</v>
@@ -4374,19 +4374,19 @@
         <v>1912431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1886382</v>
+        <v>1884639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1937089</v>
+        <v>1936704</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8807398259637647</v>
+        <v>0.8807398259637645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8687431730156555</v>
+        <v>0.8679406686143832</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8920956607489817</v>
+        <v>0.8919181259738326</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4122</v>
@@ -4395,19 +4395,19 @@
         <v>3768417</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3716942</v>
+        <v>3721720</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3811435</v>
+        <v>3812538</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8560773110823132</v>
+        <v>0.8560773110823131</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8443836071425042</v>
+        <v>0.8454690209118384</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8658496478697923</v>
+        <v>0.8661002223382561</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>109545</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89950</v>
+        <v>90823</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130754</v>
+        <v>131792</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1539439916486062</v>
+        <v>0.1539439916486061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1264074418108309</v>
+        <v>0.1276345106477021</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1837496945589158</v>
+        <v>0.1852081427813693</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>166</v>
@@ -4520,19 +4520,19 @@
         <v>109443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94107</v>
+        <v>94473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127434</v>
+        <v>127478</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1489262941499836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1280578027615223</v>
+        <v>0.1285561567898465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1734091691294085</v>
+        <v>0.1734686294481806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>275</v>
@@ -4541,19 +4541,19 @@
         <v>218987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>194370</v>
+        <v>193544</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>246742</v>
+        <v>243812</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1513947466630374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1343762674660335</v>
+        <v>0.133805001342336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1705829444991311</v>
+        <v>0.1685575527156286</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>602042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580833</v>
+        <v>579795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621637</v>
+        <v>620764</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8460560083513938</v>
+        <v>0.8460560083513936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8162503054410842</v>
+        <v>0.8147918572186306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8735925581891691</v>
+        <v>0.8723654893522979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>838</v>
@@ -4591,19 +4591,19 @@
         <v>625434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>607443</v>
+        <v>607399</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>640770</v>
+        <v>640404</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8510737058500162</v>
+        <v>0.8510737058500163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8265908308705915</v>
+        <v>0.8265313705518191</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8719421972384777</v>
+        <v>0.8714438432101534</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1410</v>
@@ -4612,19 +4612,19 @@
         <v>1227477</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1199722</v>
+        <v>1202652</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1252094</v>
+        <v>1252920</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8486052533369628</v>
+        <v>0.8486052533369626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8294170555008691</v>
+        <v>0.8314424472843713</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8656237325339664</v>
+        <v>0.8661949986576644</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>647310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>601686</v>
+        <v>599174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>701250</v>
+        <v>693373</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1838590935858438</v>
+        <v>0.1838590935858439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1709004968311184</v>
+        <v>0.1701869523690764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1991801123286822</v>
+        <v>0.1969427392616126</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1123</v>
@@ -4737,19 +4737,19 @@
         <v>654711</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>615837</v>
+        <v>617247</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>688552</v>
+        <v>694882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1756054473095646</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1651787257081104</v>
+        <v>0.1655567958112518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1846820949462403</v>
+        <v>0.1863799228858222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1809</v>
@@ -4758,19 +4758,19 @@
         <v>1302021</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1239996</v>
+        <v>1242880</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1362002</v>
+        <v>1367992</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1796140706019095</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1710576949196378</v>
+        <v>0.1714555532021024</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1878885178206561</v>
+        <v>0.1887148006397421</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2873373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2819433</v>
+        <v>2827310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2918997</v>
+        <v>2921509</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.816140906414156</v>
+        <v>0.8161409064141563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8008198876713177</v>
+        <v>0.8030572607383873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8290995031688815</v>
+        <v>0.8298130476309237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4229</v>
@@ -4808,19 +4808,19 @@
         <v>3073596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3039755</v>
+        <v>3033425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3112470</v>
+        <v>3111060</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8243945526904354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8153179050537599</v>
+        <v>0.8136200771141781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8348212742918896</v>
+        <v>0.8344432041887484</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6907</v>
@@ -4829,19 +4829,19 @@
         <v>5946969</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5886988</v>
+        <v>5880998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6008994</v>
+        <v>6006110</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8203859293980904</v>
+        <v>0.8203859293980907</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8121114821793434</v>
+        <v>0.8112851993602579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8289423050803619</v>
+        <v>0.8285444467978977</v>
       </c>
     </row>
     <row r="15">
